--- a/mvc-vs-webflux/benchmark/results/dbio/2c512m_db2c512m_br.xlsx
+++ b/mvc-vs-webflux/benchmark/results/dbio/2c512m_db2c512m_br.xlsx
@@ -8,19 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoon-ilsong/Workspace/ats/mvc-vs-webflux/benchmark/results/dbio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FDC15370-2A0C-434C-8B4C-5FCACEA53A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA214561-6491-3242-8AC3-3BE5E5771CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{2A0144E6-B84F-9F42-AD54-BFCCA0121913}"/>
   </bookViews>
   <sheets>
     <sheet name="benchmark_results" sheetId="1" r:id="rId1"/>
+    <sheet name="throughput" sheetId="2" r:id="rId2"/>
+    <sheet name="avg latency" sheetId="3" r:id="rId3"/>
+    <sheet name="max latency" sheetId="5" r:id="rId4"/>
+    <sheet name="transfer" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="9" r:id="rId6"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="16">
   <si>
     <t>Framework</t>
   </si>
@@ -47,6 +54,27 @@
   </si>
   <si>
     <t>SpringWebFlux</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of RequestsPerSec</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Sum of AvgLatencyMs</t>
+  </si>
+  <si>
+    <t>Sum of MaxLatencyMs</t>
+  </si>
+  <si>
+    <t>Sum of TransferPerSec</t>
   </si>
 </sst>
 </file>
@@ -530,8 +558,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -588,6 +624,6046 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[2c512m_db2c512m_br.xlsx]throughput!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-KR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-KR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>throughput!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpringMVC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>throughput!$A$5:$A$25</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="15"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>500</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>throughput!$B$5:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3193.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4596.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4604.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7201.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6459.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7883.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7931.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7953.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7899.71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8003.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6769.48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7892.93</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7492.57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6880.73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7883.82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F71-AF4C-B1AD-B75DD41F0AAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>throughput!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpringWebFlux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>throughput!$A$5:$A$25</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="15"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>500</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>throughput!$C$5:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1462.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3810.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4098.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6740.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6792.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7389.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7701.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7721.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7768.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7878.13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7110.85</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6728.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7282.93</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6546.04</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7360.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6F71-AF4C-B1AD-B75DD41F0AAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="532657360"/>
+        <c:axId val="532160960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="532657360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532160960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="532160960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="532657360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[2c512m_db2c512m_br.xlsx]avg latency!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-KR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-KR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'avg latency'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpringMVC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'avg latency'!$A$5:$A$25</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="15"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>500</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'avg latency'!$B$5:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.51</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36.51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83.76</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A7CD-C442-B69C-9AF90A520AE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'avg latency'!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpringWebFlux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'avg latency'!$A$5:$A$25</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="15"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>500</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'avg latency'!$C$5:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>19.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.07</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>77.89</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A7CD-C442-B69C-9AF90A520AE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="210087456"/>
+        <c:axId val="213930064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="210087456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213930064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="213930064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="210087456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[2c512m_db2c512m_br.xlsx]max latency!PivotTable3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-KR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-KR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'max latency'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpringMVC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'max latency'!$A$5:$A$25</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="15"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>500</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'max latency'!$B$5:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>396.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>134.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>173.48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>143.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>177.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>154.24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>340.36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>532.38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>337.98</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1330</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1720</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB21-AD4D-A586-3ABCC48F0952}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'max latency'!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpringWebFlux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'max latency'!$A$5:$A$25</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="15"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>500</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'max latency'!$C$5:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>761.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>161.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>272.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>115.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>218.73</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>113.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>118.76</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150.54</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>284.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>367.93</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>211.74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>425.79</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>177.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB21-AD4D-A586-3ABCC48F0952}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="214106816"/>
+        <c:axId val="214117328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="214106816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214117328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="214117328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214106816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[2c512m_db2c512m_br.xlsx]transfer!PivotTable4</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-KR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-KR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>transfer!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpringMVC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>transfer!$A$5:$A$25</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="15"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>500</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>transfer!$B$5:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>486.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>701.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1170</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6071-4246-8FEB-CFB7C5E9F400}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>transfer!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SpringWebFlux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>transfer!$A$5:$A$25</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="15"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>8</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>500</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>transfer!$C$5:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>172.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>449.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>483.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>795.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>801.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>839.46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>794.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>859.78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>772.79</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>868.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6071-4246-8FEB-CFB7C5E9F400}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="497551616"/>
+        <c:axId val="212937920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="497551616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="212937920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="212937920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="497551616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3DBCB6B-13EB-6392-37E6-0114FEA43E1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C506E5BD-F48F-954B-CE5E-734A92C89423}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25399</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>448732</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02F1A366-170F-854E-D707-B4FB31850CC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>249766</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{714B54EB-357A-E3C6-ABD5-145638CE08BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45847.579812037038" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="30" xr:uid="{606FC638-27A5-B04D-8B99-19A8FA04DF61}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Framework" numFmtId="0">
+      <sharedItems count="2">
+        <s v="SpringMVC"/>
+        <s v="SpringWebFlux"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Threads" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="8" count="3">
+        <n v="2"/>
+        <n v="4"/>
+        <n v="8"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Concurrency" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="500" count="5">
+        <n v="10"/>
+        <n v="50"/>
+        <n v="100"/>
+        <n v="200"/>
+        <n v="500"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="RequestsPerSec" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1462.7" maxValue="8003.45"/>
+    </cacheField>
+    <cacheField name="TransferPerSec" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="172.68" maxValue="1190"/>
+    </cacheField>
+    <cacheField name="AvgLatencyMs" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.0499999999999998" maxValue="83.76"/>
+    </cacheField>
+    <cacheField name="MaxLatencyMs" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="76.040000000000006" maxValue="1720"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="30">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3193.42"/>
+    <n v="486.74"/>
+    <n v="10.050000000000001"/>
+    <n v="396.98"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1462.7"/>
+    <n v="172.68"/>
+    <n v="19.13"/>
+    <n v="761.75"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="4596.51"/>
+    <n v="700.6"/>
+    <n v="2.2799999999999998"/>
+    <n v="93.19"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="3810.17"/>
+    <n v="449.8"/>
+    <n v="2.85"/>
+    <n v="96.46"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4604.76"/>
+    <n v="701.87"/>
+    <n v="2.0499999999999998"/>
+    <n v="76.040000000000006"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="4098.45"/>
+    <n v="483.85"/>
+    <n v="2.7"/>
+    <n v="161.49"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="7201.48"/>
+    <n v="1097"/>
+    <n v="8.6300000000000008"/>
+    <n v="134.37"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="6740.38"/>
+    <n v="795.75"/>
+    <n v="8.89"/>
+    <n v="142.35"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="6459.03"/>
+    <n v="960"/>
+    <n v="9.75"/>
+    <n v="173.48"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="6792.82"/>
+    <n v="801.93"/>
+    <n v="9.42"/>
+    <n v="272.43"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="7883.11"/>
+    <n v="1170"/>
+    <n v="6.97"/>
+    <n v="180.01"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="7389.98"/>
+    <n v="850"/>
+    <n v="7.53"/>
+    <n v="115.41"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="7931.82"/>
+    <n v="1180"/>
+    <n v="14.06"/>
+    <n v="143.26"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="7701.24"/>
+    <n v="890"/>
+    <n v="14.14"/>
+    <n v="218.73"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="7953.7"/>
+    <n v="1180"/>
+    <n v="14.27"/>
+    <n v="177.07"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="7721.33"/>
+    <n v="890"/>
+    <n v="13.74"/>
+    <n v="113.34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="7899.71"/>
+    <n v="1180"/>
+    <n v="13.51"/>
+    <n v="154.24"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="7768.53"/>
+    <n v="900"/>
+    <n v="13.07"/>
+    <n v="118.76"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="8003.45"/>
+    <n v="1190"/>
+    <n v="30.56"/>
+    <n v="340.36"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="7878.13"/>
+    <n v="910"/>
+    <n v="25.64"/>
+    <n v="150.54"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="6769.48"/>
+    <n v="1010"/>
+    <n v="36.51"/>
+    <n v="532.38"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="7110.85"/>
+    <n v="839.46"/>
+    <n v="29.41"/>
+    <n v="284.01"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="7892.93"/>
+    <n v="1170"/>
+    <n v="31.85"/>
+    <n v="337.98"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="6728.2"/>
+    <n v="794.3"/>
+    <n v="33.11"/>
+    <n v="367.93"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="7492.57"/>
+    <n v="1120"/>
+    <n v="77.16"/>
+    <n v="1330"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="7282.93"/>
+    <n v="859.78"/>
+    <n v="68.3"/>
+    <n v="211.74"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="6880.73"/>
+    <n v="1020"/>
+    <n v="83.76"/>
+    <n v="1230"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="6546.04"/>
+    <n v="772.79"/>
+    <n v="77.89"/>
+    <n v="425.79"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="7883.82"/>
+    <n v="1170"/>
+    <n v="73.05"/>
+    <n v="1720"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="7360.3"/>
+    <n v="868.92"/>
+    <n v="67.22"/>
+    <n v="177.66"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D21D547D-12B2-FF41-8A88-0DB91DB06399}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:D25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of RequestsPerSec" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{67784CAD-7F09-A24B-B2D3-633066D39F81}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:D25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of AvgLatencyMs" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C124EDE8-8F88-A843-8A21-A85C4D2B31DD}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:D25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of MaxLatencyMs" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F779A4E-C27E-D843-B9E8-0D6D0C48AF92}" name="PivotTable4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:D25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="2"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of TransferPerSec" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -926,7 +7002,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1654,7 +7730,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D31">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1666,19 +7742,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E31">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F31">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1690,7 +7766,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G31">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1706,4 +7782,1356 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9951B76-D078-2C45-A000-3A70AF7DAE4D}">
+  <dimension ref="A3:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12394.69</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9371.32</v>
+      </c>
+      <c r="D5" s="1">
+        <v>21766.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3193.42</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1462.7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4656.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4596.51</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3810.17</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8406.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4604.76</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4098.45</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8703.2099999999991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1">
+        <v>21543.62</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20923.18</v>
+      </c>
+      <c r="D9" s="1">
+        <v>42466.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7201.48</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6740.38</v>
+      </c>
+      <c r="D10" s="1">
+        <v>13941.86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6459.03</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6792.82</v>
+      </c>
+      <c r="D11" s="1">
+        <v>13251.849999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7883.11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7389.98</v>
+      </c>
+      <c r="D12" s="1">
+        <v>15273.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>100</v>
+      </c>
+      <c r="B13" s="1">
+        <v>23785.23</v>
+      </c>
+      <c r="C13" s="1">
+        <v>23191.1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>46976.329999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7931.82</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7701.24</v>
+      </c>
+      <c r="D14" s="1">
+        <v>15633.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>7953.7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7721.33</v>
+      </c>
+      <c r="D15" s="1">
+        <v>15675.029999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7899.71</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7768.53</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15668.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>200</v>
+      </c>
+      <c r="B17" s="1">
+        <v>22665.86</v>
+      </c>
+      <c r="C17" s="1">
+        <v>21717.18</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44383.040000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>8003.45</v>
+      </c>
+      <c r="C18" s="1">
+        <v>7878.13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>15881.58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6769.48</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7110.85</v>
+      </c>
+      <c r="D19" s="1">
+        <v>13880.33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7892.93</v>
+      </c>
+      <c r="C20" s="1">
+        <v>6728.2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>14621.130000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>500</v>
+      </c>
+      <c r="B21" s="1">
+        <v>22257.119999999999</v>
+      </c>
+      <c r="C21" s="1">
+        <v>21189.27</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43446.39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7492.57</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7282.93</v>
+      </c>
+      <c r="D22" s="1">
+        <v>14775.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6880.73</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6546.04</v>
+      </c>
+      <c r="D23" s="1">
+        <v>13426.77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1">
+        <v>7883.82</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7360.3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>15244.119999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1">
+        <v>102646.51999999999</v>
+      </c>
+      <c r="C25" s="1">
+        <v>96392.049999999988</v>
+      </c>
+      <c r="D25" s="1">
+        <v>199038.56999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BCBC0B-1FEA-F047-B525-F45C4C123381}">
+  <dimension ref="A3:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>14.379999999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>24.68</v>
+      </c>
+      <c r="D5" s="1">
+        <v>39.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>19.13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>29.18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.85</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1">
+        <v>25.35</v>
+      </c>
+      <c r="C9" s="1">
+        <v>25.840000000000003</v>
+      </c>
+      <c r="D9" s="1">
+        <v>51.190000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8.89</v>
+      </c>
+      <c r="D10" s="1">
+        <v>17.520000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9.75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9.42</v>
+      </c>
+      <c r="D11" s="1">
+        <v>19.170000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6.97</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7.53</v>
+      </c>
+      <c r="D12" s="1">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>100</v>
+      </c>
+      <c r="B13" s="1">
+        <v>41.839999999999996</v>
+      </c>
+      <c r="C13" s="1">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="D13" s="1">
+        <v>82.789999999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>14.06</v>
+      </c>
+      <c r="C14" s="1">
+        <v>14.14</v>
+      </c>
+      <c r="D14" s="1">
+        <v>28.200000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14.27</v>
+      </c>
+      <c r="C15" s="1">
+        <v>13.74</v>
+      </c>
+      <c r="D15" s="1">
+        <v>28.009999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1">
+        <v>13.51</v>
+      </c>
+      <c r="C16" s="1">
+        <v>13.07</v>
+      </c>
+      <c r="D16" s="1">
+        <v>26.58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>200</v>
+      </c>
+      <c r="B17" s="1">
+        <v>98.919999999999987</v>
+      </c>
+      <c r="C17" s="1">
+        <v>88.16</v>
+      </c>
+      <c r="D17" s="1">
+        <v>187.08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>30.56</v>
+      </c>
+      <c r="C18" s="1">
+        <v>25.64</v>
+      </c>
+      <c r="D18" s="1">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>36.51</v>
+      </c>
+      <c r="C19" s="1">
+        <v>29.41</v>
+      </c>
+      <c r="D19" s="1">
+        <v>65.92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1">
+        <v>31.85</v>
+      </c>
+      <c r="C20" s="1">
+        <v>33.11</v>
+      </c>
+      <c r="D20" s="1">
+        <v>64.960000000000008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>500</v>
+      </c>
+      <c r="B21" s="1">
+        <v>233.97000000000003</v>
+      </c>
+      <c r="C21" s="1">
+        <v>213.41</v>
+      </c>
+      <c r="D21" s="1">
+        <v>447.38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>77.16</v>
+      </c>
+      <c r="C22" s="1">
+        <v>68.3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>145.45999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1">
+        <v>83.76</v>
+      </c>
+      <c r="C23" s="1">
+        <v>77.89</v>
+      </c>
+      <c r="D23" s="1">
+        <v>161.65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1">
+        <v>73.05</v>
+      </c>
+      <c r="C24" s="1">
+        <v>67.22</v>
+      </c>
+      <c r="D24" s="1">
+        <v>140.26999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1">
+        <v>414.46</v>
+      </c>
+      <c r="C25" s="1">
+        <v>393.03999999999996</v>
+      </c>
+      <c r="D25" s="1">
+        <v>807.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF22853C-FC84-364A-99A4-34621EBE6A85}">
+  <dimension ref="A3:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>566.21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1019.7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1585.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>396.98</v>
+      </c>
+      <c r="C6" s="1">
+        <v>761.75</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1158.73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>93.19</v>
+      </c>
+      <c r="C7" s="1">
+        <v>96.46</v>
+      </c>
+      <c r="D7" s="1">
+        <v>189.64999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>76.040000000000006</v>
+      </c>
+      <c r="C8" s="1">
+        <v>161.49</v>
+      </c>
+      <c r="D8" s="1">
+        <v>237.53000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1">
+        <v>487.86</v>
+      </c>
+      <c r="C9" s="1">
+        <v>530.18999999999994</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1018.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>134.37</v>
+      </c>
+      <c r="C10" s="1">
+        <v>142.35</v>
+      </c>
+      <c r="D10" s="1">
+        <v>276.72000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>173.48</v>
+      </c>
+      <c r="C11" s="1">
+        <v>272.43</v>
+      </c>
+      <c r="D11" s="1">
+        <v>445.90999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>180.01</v>
+      </c>
+      <c r="C12" s="1">
+        <v>115.41</v>
+      </c>
+      <c r="D12" s="1">
+        <v>295.41999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>100</v>
+      </c>
+      <c r="B13" s="1">
+        <v>474.57</v>
+      </c>
+      <c r="C13" s="1">
+        <v>450.83</v>
+      </c>
+      <c r="D13" s="1">
+        <v>925.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>143.26</v>
+      </c>
+      <c r="C14" s="1">
+        <v>218.73</v>
+      </c>
+      <c r="D14" s="1">
+        <v>361.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>177.07</v>
+      </c>
+      <c r="C15" s="1">
+        <v>113.34</v>
+      </c>
+      <c r="D15" s="1">
+        <v>290.40999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1">
+        <v>154.24</v>
+      </c>
+      <c r="C16" s="1">
+        <v>118.76</v>
+      </c>
+      <c r="D16" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>200</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1210.72</v>
+      </c>
+      <c r="C17" s="1">
+        <v>802.48</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2013.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>340.36</v>
+      </c>
+      <c r="C18" s="1">
+        <v>150.54</v>
+      </c>
+      <c r="D18" s="1">
+        <v>490.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>532.38</v>
+      </c>
+      <c r="C19" s="1">
+        <v>284.01</v>
+      </c>
+      <c r="D19" s="1">
+        <v>816.39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1">
+        <v>337.98</v>
+      </c>
+      <c r="C20" s="1">
+        <v>367.93</v>
+      </c>
+      <c r="D20" s="1">
+        <v>705.91000000000008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>500</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4280</v>
+      </c>
+      <c r="C21" s="1">
+        <v>815.18999999999994</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5095.1899999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1330</v>
+      </c>
+      <c r="C22" s="1">
+        <v>211.74</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1541.74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1230</v>
+      </c>
+      <c r="C23" s="1">
+        <v>425.79</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1655.79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1720</v>
+      </c>
+      <c r="C24" s="1">
+        <v>177.66</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1897.66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7019.3600000000006</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3618.3900000000003</v>
+      </c>
+      <c r="D25" s="1">
+        <v>10637.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F1DE9B-755B-AA48-AD07-6AAAFB06E1AF}">
+  <dimension ref="A3:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1889.21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1106.33</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2995.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>486.74</v>
+      </c>
+      <c r="C6" s="1">
+        <v>172.68</v>
+      </c>
+      <c r="D6" s="1">
+        <v>659.42000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>700.6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>449.8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1150.4000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>701.87</v>
+      </c>
+      <c r="C8" s="1">
+        <v>483.85</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1185.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3227</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2447.6799999999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5674.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1097</v>
+      </c>
+      <c r="C10" s="1">
+        <v>795.75</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1892.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>960</v>
+      </c>
+      <c r="C11" s="1">
+        <v>801.93</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1761.9299999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1170</v>
+      </c>
+      <c r="C12" s="1">
+        <v>850</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>100</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3540</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2680</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1180</v>
+      </c>
+      <c r="C14" s="1">
+        <v>890</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1180</v>
+      </c>
+      <c r="C15" s="1">
+        <v>890</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1180</v>
+      </c>
+      <c r="C16" s="1">
+        <v>900</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>200</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3370</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2543.7600000000002</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5913.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1190</v>
+      </c>
+      <c r="C18" s="1">
+        <v>910</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1010</v>
+      </c>
+      <c r="C19" s="1">
+        <v>839.46</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1849.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1170</v>
+      </c>
+      <c r="C20" s="1">
+        <v>794.3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1964.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>500</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3310</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2501.4899999999998</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5811.49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1120</v>
+      </c>
+      <c r="C22" s="1">
+        <v>859.78</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1979.78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1020</v>
+      </c>
+      <c r="C23" s="1">
+        <v>772.79</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1792.79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1170</v>
+      </c>
+      <c r="C24" s="1">
+        <v>868.92</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2038.92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1">
+        <v>15336.21</v>
+      </c>
+      <c r="C25" s="1">
+        <v>11279.26</v>
+      </c>
+      <c r="D25" s="1">
+        <v>26615.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>